--- a/ArticleManage/main_working_folder/output_folders/Data 65 Activated Carbon from Stipa/Data65_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 65 Activated Carbon from Stipa/Data65_all_graphs_excel.xlsx
@@ -5,18 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="R1-400" sheetId="1" r:id="rId1"/>
-    <sheet name="R1-450" sheetId="2" r:id="rId4"/>
-    <sheet name="R1-500" sheetId="3" r:id="rId5"/>
-    <sheet name="R1-600" sheetId="4" r:id="rId6"/>
-    <sheet name="R2-400" sheetId="5" r:id="rId7"/>
-    <sheet name="R2-450" sheetId="6" r:id="rId8"/>
-    <sheet name="R2-500" sheetId="7" r:id="rId9"/>
-    <sheet name="R2-600" sheetId="8" r:id="rId10"/>
-    <sheet name="R3-400" sheetId="9" r:id="rId11"/>
-    <sheet name="R3-450" sheetId="10" r:id="rId12"/>
-    <sheet name="R3-500" sheetId="11" r:id="rId13"/>
-    <sheet name="R3-600" sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 2_1 R1-400  0-1-0-600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 R1-450  0-1-0-600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 R1-500  0-1-0-600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 R1-600  0-1-0-600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 R2-400  0-1-0-800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 R2-450  0-1-0-800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 R2-500  0-1-0-800 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_2 R2-600  0-1-0-800 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_3 R3-400  0-1-0-800 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 2_3 R3-450  0-1-0-800 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 2_3 R3-500  0-1-0-800 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 2_3 R3-600  0-1-0-800 " sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -141,7 +141,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R1-400</a:t>
+              <a:t>Izoterma adsorpcji probki R1-400 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -200,12 +200,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R1-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 R1-400  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R1-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 R1-400  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -218,6 +218,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -287,6 +289,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -451,7 +455,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R3-450</a:t>
+              <a:t>Izoterma adsorpcji probki R3-450 z wykresu 'Figure 2_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -510,12 +514,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R3-450'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_3 R3-450  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R3-450'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_3 R3-450  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -528,6 +532,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -597,6 +603,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -761,7 +769,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R3-500</a:t>
+              <a:t>Izoterma adsorpcji probki R3-500 z wykresu 'Figure 2_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -820,12 +828,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R3-500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_3 R3-500  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R3-500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_3 R3-500  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -838,6 +846,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -907,6 +917,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1071,7 +1083,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R3-600</a:t>
+              <a:t>Izoterma adsorpcji probki R3-600 z wykresu 'Figure 2_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1130,12 +1142,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R3-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_3 R3-600  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R3-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_3 R3-600  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1148,6 +1160,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1217,6 +1231,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1381,7 +1397,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R1-450</a:t>
+              <a:t>Izoterma adsorpcji probki R1-450 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1440,12 +1456,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R1-450'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 R1-450  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R1-450'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 R1-450  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1458,6 +1474,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1527,6 +1545,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1691,7 +1711,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R1-500</a:t>
+              <a:t>Izoterma adsorpcji probki R1-500 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1750,12 +1770,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R1-500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 R1-500  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R1-500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 R1-500  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1768,6 +1788,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1837,6 +1859,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2001,7 +2025,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R1-600</a:t>
+              <a:t>Izoterma adsorpcji probki R1-600 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2060,12 +2084,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R1-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_1 R1-600  0-1-0-600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R1-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_1 R1-600  0-1-0-600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2078,6 +2102,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2147,6 +2173,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2311,7 +2339,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R2-400</a:t>
+              <a:t>Izoterma adsorpcji probki R2-400 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2370,12 +2398,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R2-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 R2-400  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R2-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 R2-400  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2388,6 +2416,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2457,6 +2487,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2621,7 +2653,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R2-450</a:t>
+              <a:t>Izoterma adsorpcji probki R2-450 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2680,12 +2712,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R2-450'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 R2-450  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R2-450'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 R2-450  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2698,6 +2730,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2767,6 +2801,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2931,7 +2967,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R2-500</a:t>
+              <a:t>Izoterma adsorpcji probki R2-500 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2990,12 +3026,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R2-500'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 R2-500  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R2-500'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 R2-500  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3008,6 +3044,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3077,6 +3115,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3241,7 +3281,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R2-600</a:t>
+              <a:t>Izoterma adsorpcji probki R2-600 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3300,12 +3340,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R2-600'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_2 R2-600  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R2-600'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_2 R2-600  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3318,6 +3358,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3387,6 +3429,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3551,7 +3595,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki R3-400</a:t>
+              <a:t>Izoterma adsorpcji probki R3-400 z wykresu 'Figure 2_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3610,12 +3654,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'R3-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2_3 R3-400  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'R3-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2_3 R3-400  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3628,6 +3672,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3697,6 +3743,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 65 Activated Carbon from Stipa/Data65_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 65 Activated Carbon from Stipa/Data65_all_graphs_excel.xlsx
@@ -11325,7 +11325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11346,381 +11346,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.32</v>
+        <v>0.9767</v>
       </c>
       <c r="B3" s="0">
-        <v>349.3361</v>
+        <v>394.3162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.34</v>
+        <v>0.9513</v>
       </c>
       <c r="B4" s="0">
-        <v>351.2709</v>
+        <v>386.8561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.36</v>
+        <v>0.932</v>
       </c>
       <c r="B5" s="0">
-        <v>352.5834</v>
+        <v>383.659</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.38</v>
+        <v>0.8834</v>
       </c>
       <c r="B6" s="0">
-        <v>353.9846</v>
+        <v>379.3961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.42</v>
+        <v>0.784</v>
       </c>
       <c r="B7" s="0">
-        <v>356.776</v>
+        <v>374.0675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.44</v>
+        <v>0.6866</v>
       </c>
       <c r="B8" s="0">
-        <v>357.7711</v>
+        <v>369.8046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.46</v>
+        <v>0.5882</v>
       </c>
       <c r="B9" s="0">
-        <v>358.8715</v>
+        <v>365.5417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.52</v>
+        <v>0.4899</v>
       </c>
       <c r="B10" s="0">
-        <v>362.3652</v>
+        <v>360.2131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.54</v>
+        <v>0.3925</v>
       </c>
       <c r="B11" s="0">
-        <v>363.3187</v>
+        <v>355.9503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.56</v>
+        <v>0.3418</v>
       </c>
       <c r="B12" s="0">
-        <v>364.2771</v>
+        <v>352.7531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.62</v>
+        <v>0.2931</v>
       </c>
       <c r="B13" s="0">
-        <v>367.6493</v>
+        <v>347.4245</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.64</v>
+        <v>0.2688</v>
       </c>
       <c r="B14" s="0">
-        <v>368.6517</v>
+        <v>344.2274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.66</v>
+        <v>0.2454</v>
       </c>
       <c r="B15" s="0">
-        <v>370.0416</v>
+        <v>341.0302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.68</v>
+        <v>0.2211</v>
       </c>
       <c r="B16" s="0">
-        <v>371.6963</v>
+        <v>337.833</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7</v>
+        <v>0.1968</v>
       </c>
       <c r="B17" s="0">
-        <v>372.9884</v>
+        <v>333.5702</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.72</v>
+        <v>0.1714</v>
       </c>
       <c r="B18" s="0">
-        <v>373.8957</v>
+        <v>328.2416</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.74</v>
+        <v>0.1471</v>
       </c>
       <c r="B19" s="0">
-        <v>373.5524</v>
+        <v>320.7815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.76</v>
+        <v>0.1227</v>
       </c>
       <c r="B20" s="0">
-        <v>373.2555</v>
+        <v>314.3872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.78</v>
+        <v>0.0984</v>
       </c>
       <c r="B21" s="0">
-        <v>373.7288</v>
+        <v>306.9272</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.8</v>
+        <v>0.0751</v>
       </c>
       <c r="B22" s="0">
-        <v>374.4487</v>
+        <v>297.3357</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.82</v>
+        <v>0.0497</v>
       </c>
       <c r="B23" s="0">
-        <v>375.7494</v>
+        <v>280.2842</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.84</v>
+        <v>0.0284</v>
       </c>
       <c r="B24" s="0">
-        <v>377.1775</v>
+        <v>262.167</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.86</v>
+        <v>0.0183</v>
       </c>
       <c r="B25" s="0">
-        <v>378.3988</v>
+        <v>245.1155</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.88</v>
+        <v>0.0091</v>
       </c>
       <c r="B26" s="0">
-        <v>379.3149</v>
+        <v>215.2753</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9</v>
+        <v>0.0081</v>
       </c>
       <c r="B27" s="0">
-        <v>380.3397</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B28" s="0">
-        <v>383.2588</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B29" s="0">
-        <v>387.145</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B30" s="0">
-        <v>391.1197</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.2444</v>
-      </c>
-      <c r="B31" s="0">
-        <v>339.9645</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.1471</v>
-      </c>
-      <c r="B32" s="0">
-        <v>319.7158</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.1227</v>
-      </c>
-      <c r="B33" s="0">
-        <v>313.3215</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0994</v>
-      </c>
-      <c r="B34" s="0">
-        <v>305.8615</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.0751</v>
-      </c>
-      <c r="B35" s="0">
-        <v>297.3357</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0507</v>
-      </c>
-      <c r="B36" s="0">
-        <v>281.3499</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.0304</v>
-      </c>
-      <c r="B37" s="0">
-        <v>262.167</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.0223</v>
-      </c>
-      <c r="B38" s="0">
-        <v>246.1812</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0172</v>
-      </c>
-      <c r="B39" s="0">
-        <v>232.3268</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0122</v>
-      </c>
-      <c r="B40" s="0">
-        <v>214.2096</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0081</v>
-      </c>
-      <c r="B41" s="0">
-        <v>165.1865</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.2211</v>
-      </c>
-      <c r="B42" s="0">
-        <v>336.7673</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.1957</v>
-      </c>
-      <c r="B43" s="0">
-        <v>333.5702</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1724</v>
-      </c>
-      <c r="B44" s="0">
-        <v>326.1101</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.2941</v>
-      </c>
-      <c r="B45" s="0">
-        <v>346.3588</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.2708</v>
-      </c>
-      <c r="B46" s="0">
-        <v>344.2274</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.3925</v>
-      </c>
-      <c r="B47" s="0">
-        <v>355.9503</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.4899</v>
-      </c>
-      <c r="B48" s="0">
-        <v>361.2789</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.5882</v>
-      </c>
-      <c r="B49" s="0">
-        <v>367.6732</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>168.3837</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -11729,7 +11553,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11750,445 +11574,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.0261</v>
       </c>
       <c r="B3" s="0">
-        <v>290.7856</v>
+        <v>231.8565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.0171</v>
       </c>
       <c r="B4" s="0">
-        <v>305.767</v>
+        <v>213.9477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.0131</v>
       </c>
       <c r="B5" s="0">
-        <v>317.4212</v>
+        <v>199.1957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.006</v>
       </c>
       <c r="B6" s="0">
-        <v>329.5316</v>
+        <v>154.9344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.004</v>
       </c>
       <c r="B7" s="0">
-        <v>341.7281</v>
+        <v>84.3172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.0462</v>
       </c>
       <c r="B8" s="0">
-        <v>353.008</v>
+        <v>262.4019</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.0744</v>
       </c>
       <c r="B9" s="0">
-        <v>363.5724</v>
+        <v>287.6686</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.0975</v>
       </c>
       <c r="B10" s="0">
-        <v>373.9765</v>
+        <v>304.5086</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.1216</v>
       </c>
       <c r="B11" s="0">
-        <v>383.833</v>
+        <v>320.2934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.1477</v>
       </c>
       <c r="B12" s="0">
-        <v>394.2465</v>
+        <v>336.0762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.1749</v>
       </c>
       <c r="B13" s="0">
-        <v>404.7743</v>
+        <v>351.8578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.201</v>
       </c>
       <c r="B14" s="0">
-        <v>414.408</v>
+        <v>364.4785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2261</v>
       </c>
       <c r="B15" s="0">
-        <v>423.2994</v>
+        <v>378.1543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2442</v>
       </c>
       <c r="B16" s="0">
-        <v>432.0535</v>
+        <v>386.5674</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.2744</v>
       </c>
       <c r="B17" s="0">
-        <v>441.2954</v>
+        <v>402.3459</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.3005</v>
       </c>
       <c r="B18" s="0">
-        <v>450.7613</v>
+        <v>414.9665</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.3457</v>
       </c>
       <c r="B19" s="0">
-        <v>460.1584</v>
+        <v>433.8912</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="B20" s="0">
-        <v>469.3889</v>
+        <v>462.2925</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.5005</v>
       </c>
       <c r="B21" s="0">
-        <v>477.8755</v>
+        <v>505.4013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.593</v>
       </c>
       <c r="B22" s="0">
-        <v>486.6789</v>
+        <v>541.1405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.7015</v>
       </c>
       <c r="B23" s="0">
-        <v>495.4807</v>
+        <v>588.4569</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.798</v>
       </c>
       <c r="B24" s="0">
-        <v>503.8045</v>
+        <v>623.1378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.9015</v>
       </c>
       <c r="B25" s="0">
-        <v>512.2659</v>
+        <v>653.5952</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.9538</v>
       </c>
       <c r="B26" s="0">
-        <v>520.7581</v>
+        <v>666.1884</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.9749</v>
       </c>
       <c r="B27" s="0">
-        <v>528.0908</v>
+        <v>671.4362</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.997</v>
       </c>
       <c r="B28" s="0">
-        <v>535.2447</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B29" s="0">
-        <v>544.0518</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B30" s="0">
-        <v>552.8784</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B31" s="0">
-        <v>561.4479</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B32" s="0">
-        <v>570.7048</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B33" s="0">
-        <v>578.4477</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>586.3785</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>594.689</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>602.0284</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>608.8997</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>615.8273</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>622.1339</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>627.9772</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>634.501</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>641.4252</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>648.0639</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>654.3236</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>659.5164</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>664.3281</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>669.1586</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0603</v>
-      </c>
-      <c r="B48" s="0">
-        <v>275.0353</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0472</v>
-      </c>
-      <c r="B49" s="0">
-        <v>262.4008</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0362</v>
-      </c>
-      <c r="B50" s="0">
-        <v>248.7102</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0261</v>
-      </c>
-      <c r="B51" s="0">
-        <v>231.8565</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0171</v>
-      </c>
-      <c r="B52" s="0">
-        <v>213.9477</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0131</v>
-      </c>
-      <c r="B53" s="0">
-        <v>199.1957</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.006</v>
-      </c>
-      <c r="B54" s="0">
-        <v>154.9344</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B55" s="0">
-        <v>84.3172</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.9769</v>
-      </c>
-      <c r="B56" s="0">
-        <v>674.5962</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.996</v>
-      </c>
-      <c r="B57" s="0">
-        <v>677.7381</v>
-      </c>
-    </row>
-    <row r="58"/>
+        <v>678.7911</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12197,7 +11789,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12218,429 +11810,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.992</v>
       </c>
       <c r="B3" s="0">
-        <v>175.7616</v>
+        <v>762.0638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9648</v>
       </c>
       <c r="B4" s="0">
-        <v>188.2776</v>
+        <v>615.5838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9457</v>
       </c>
       <c r="B5" s="0">
-        <v>195.715</v>
+        <v>536.5526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.8945</v>
       </c>
       <c r="B6" s="0">
-        <v>204.0907</v>
+        <v>444.907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.797</v>
       </c>
       <c r="B7" s="0">
-        <v>209.6101</v>
+        <v>381.7687</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.6965</v>
       </c>
       <c r="B8" s="0">
-        <v>215.9576</v>
+        <v>347.092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.598</v>
       </c>
       <c r="B9" s="0">
-        <v>222.1856</v>
+        <v>326.1154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.4975</v>
       </c>
       <c r="B10" s="0">
-        <v>228.5451</v>
+        <v>305.141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.395</v>
       </c>
       <c r="B11" s="0">
-        <v>233.8704</v>
+        <v>283.1147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.3528</v>
       </c>
       <c r="B12" s="0">
-        <v>239.0756</v>
+        <v>274.727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.2995</v>
       </c>
       <c r="B13" s="0">
-        <v>246.1175</v>
+        <v>261.0809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.2724</v>
       </c>
       <c r="B14" s="0">
-        <v>253.0594</v>
+        <v>254.7854</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.2492</v>
       </c>
       <c r="B15" s="0">
-        <v>258.6468</v>
+        <v>247.4316</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.2221</v>
       </c>
       <c r="B16" s="0">
-        <v>263.333</v>
+        <v>241.1361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.198</v>
       </c>
       <c r="B17" s="0">
-        <v>268.7367</v>
+        <v>234.8374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.1709</v>
       </c>
       <c r="B18" s="0">
-        <v>272.5805</v>
+        <v>227.4879</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.1467</v>
       </c>
       <c r="B19" s="0">
-        <v>275.0932</v>
+        <v>220.1352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.1226</v>
       </c>
       <c r="B20" s="0">
-        <v>278.8459</v>
+        <v>212.7825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.1035</v>
       </c>
       <c r="B21" s="0">
-        <v>284.2198</v>
+        <v>206.4785</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.0683</v>
       </c>
       <c r="B22" s="0">
-        <v>288.3023</v>
+        <v>190.7053</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.0462</v>
       </c>
       <c r="B23" s="0">
-        <v>291.8157</v>
+        <v>184.4045</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.0291</v>
       </c>
       <c r="B24" s="0">
-        <v>296.18</v>
+        <v>169.6662</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.0131</v>
       </c>
       <c r="B25" s="0">
-        <v>300.7613</v>
+        <v>153.8729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.009</v>
       </c>
       <c r="B26" s="0">
-        <v>304.8402</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B27" s="0">
-        <v>308.735</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>313.0917</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>317.1176</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>321.827</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>327.6586</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>331.1183</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>334.4636</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>338.7224</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>343.7991</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>351.2356</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>356.6548</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>362.0066</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>369.2554</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>376.9866</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>384.7797</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>395.9131</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>409.57</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>421.801</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>435.7723</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.896</v>
-      </c>
-      <c r="B46" s="0">
-        <v>446.34</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>488.2657</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>533.1171</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.965</v>
-      </c>
-      <c r="B49" s="0">
-        <v>616.1734</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.984</v>
-      </c>
-      <c r="B50" s="0">
-        <v>716.5109</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9899</v>
-      </c>
-      <c r="B51" s="0">
-        <v>761.0119</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.005</v>
-      </c>
-      <c r="B52" s="0">
-        <v>99.0724</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.009</v>
-      </c>
-      <c r="B53" s="0">
-        <v>142.283</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0271</v>
-      </c>
-      <c r="B54" s="0">
-        <v>165.4523</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0151</v>
-      </c>
-      <c r="B55" s="0">
-        <v>150.7087</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>145.445</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -12649,7 +12009,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12670,429 +12030,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.992</v>
       </c>
       <c r="B3" s="0">
-        <v>245.004</v>
+        <v>818.9808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.9648</v>
       </c>
       <c r="B4" s="0">
-        <v>257.3037</v>
+        <v>772.6326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.9467</v>
       </c>
       <c r="B5" s="0">
-        <v>266.5186</v>
+        <v>744.1932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.8975</v>
       </c>
       <c r="B6" s="0">
-        <v>276.297</v>
+        <v>682.058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.796</v>
       </c>
       <c r="B7" s="0">
-        <v>285.1351</v>
+        <v>580.9792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.7015</v>
       </c>
       <c r="B8" s="0">
-        <v>293.6258</v>
+        <v>523.1078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.598</v>
       </c>
       <c r="B9" s="0">
-        <v>302.5066</v>
+        <v>468.4079</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.4995</v>
       </c>
       <c r="B10" s="0">
-        <v>311.4473</v>
+        <v>424.243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.395</v>
       </c>
       <c r="B11" s="0">
-        <v>320.815</v>
+        <v>381.1384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.32</v>
+        <v>0.3477</v>
       </c>
       <c r="B12" s="0">
-        <v>354.6317</v>
+        <v>363.2698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34</v>
+        <v>0.3055</v>
       </c>
       <c r="B13" s="0">
-        <v>360.8545</v>
+        <v>348.5581</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.36</v>
+        <v>0.2683</v>
       </c>
       <c r="B14" s="0">
-        <v>367.4983</v>
+        <v>331.733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.38</v>
+        <v>0.2503</v>
       </c>
       <c r="B15" s="0">
-        <v>374.8952</v>
+        <v>324.3739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.2191</v>
       </c>
       <c r="B16" s="0">
-        <v>382.563</v>
+        <v>309.6505</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.42</v>
+        <v>0.199</v>
       </c>
       <c r="B17" s="0">
-        <v>390.602</v>
+        <v>302.2935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.44</v>
+        <v>0.1688</v>
       </c>
       <c r="B18" s="0">
-        <v>398.9128</v>
+        <v>289.6771</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.46</v>
+        <v>0.1508</v>
       </c>
       <c r="B19" s="0">
-        <v>407.5588</v>
+        <v>282.318</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.48</v>
+        <v>0.1246</v>
       </c>
       <c r="B20" s="0">
-        <v>416.3113</v>
+        <v>268.6433</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5</v>
+        <v>0.0965</v>
       </c>
       <c r="B21" s="0">
-        <v>425.0255</v>
+        <v>254.9708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.52</v>
+        <v>0.0714</v>
       </c>
       <c r="B22" s="0">
-        <v>433.5455</v>
+        <v>240.241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.54</v>
+        <v>0.0472</v>
       </c>
       <c r="B23" s="0">
-        <v>442.1727</v>
+        <v>223.4021</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.56</v>
+        <v>0.0271</v>
       </c>
       <c r="B24" s="0">
-        <v>451.4595</v>
+        <v>202.3429</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.58</v>
+        <v>0.0141</v>
       </c>
       <c r="B25" s="0">
-        <v>460.7236</v>
+        <v>179.1683</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6</v>
+        <v>0.009</v>
       </c>
       <c r="B26" s="0">
-        <v>469.672</v>
+        <v>165.4714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.62</v>
+        <v>0.005</v>
       </c>
       <c r="B27" s="0">
-        <v>479.5023</v>
+        <v>128.585</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.64</v>
+        <v>0.003</v>
       </c>
       <c r="B28" s="0">
-        <v>489.3264</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B29" s="0">
-        <v>499.6828</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B30" s="0">
-        <v>511.3043</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B31" s="0">
-        <v>522.9513</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B32" s="0">
-        <v>534.1111</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B33" s="0">
-        <v>546.3887</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B34" s="0">
-        <v>559.1738</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B35" s="0">
-        <v>572.8629</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B36" s="0">
-        <v>606.3315</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B37" s="0">
-        <v>625.3802</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B38" s="0">
-        <v>645.7096</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B39" s="0">
-        <v>666.8392</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B40" s="0">
-        <v>714.2959</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.992</v>
-      </c>
-      <c r="B41" s="0">
-        <v>816.8728</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9658</v>
-      </c>
-      <c r="B42" s="0">
-        <v>773.6856</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9457</v>
-      </c>
-      <c r="B43" s="0">
-        <v>745.2482</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8975</v>
-      </c>
-      <c r="B44" s="0">
-        <v>682.058</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.797</v>
-      </c>
-      <c r="B45" s="0">
-        <v>582.0322</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.3055</v>
-      </c>
-      <c r="B46" s="0">
-        <v>348.5581</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.2734</v>
-      </c>
-      <c r="B47" s="0">
-        <v>333.8357</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.2553</v>
-      </c>
-      <c r="B48" s="0">
-        <v>326.4767</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0492</v>
-      </c>
-      <c r="B49" s="0">
-        <v>224.454</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0281</v>
-      </c>
-      <c r="B50" s="0">
-        <v>205.5039</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0141</v>
-      </c>
-      <c r="B51" s="0">
-        <v>183.3844</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.008</v>
-      </c>
-      <c r="B52" s="0">
-        <v>167.5805</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B53" s="0">
-        <v>128.586</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B54" s="0">
-        <v>68.507</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B55" s="0">
-        <v>5.268</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>67.454</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13101,7 +12245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13122,413 +12266,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.998</v>
       </c>
       <c r="B3" s="0">
-        <v>319.7765</v>
+        <v>453.9964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.9807</v>
       </c>
       <c r="B4" s="0">
-        <v>333.7017</v>
+        <v>450.7993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.9574</v>
       </c>
       <c r="B5" s="0">
-        <v>343.6022</v>
+        <v>446.5364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.9047</v>
       </c>
       <c r="B6" s="0">
-        <v>353.4267</v>
+        <v>443.3393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.8032</v>
       </c>
       <c r="B7" s="0">
-        <v>362.2261</v>
+        <v>435.8792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.6998</v>
       </c>
       <c r="B8" s="0">
-        <v>369.3723</v>
+        <v>430.5506</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.5974</v>
       </c>
       <c r="B9" s="0">
-        <v>374.5601</v>
+        <v>423.0906</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.497</v>
       </c>
       <c r="B10" s="0">
-        <v>379.3329</v>
+        <v>414.5648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.4037</v>
       </c>
       <c r="B11" s="0">
-        <v>383.2815</v>
+        <v>409.2362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.3499</v>
       </c>
       <c r="B12" s="0">
-        <v>386.5554</v>
+        <v>403.9076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.3063</v>
       </c>
       <c r="B13" s="0">
-        <v>389.7604</v>
+        <v>397.5133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.2789</v>
       </c>
       <c r="B14" s="0">
-        <v>393.8358</v>
+        <v>393.2504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2535</v>
       </c>
       <c r="B15" s="0">
-        <v>397.4482</v>
+        <v>387.9218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2323</v>
       </c>
       <c r="B16" s="0">
-        <v>400.5543</v>
+        <v>384.7247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.1957</v>
       </c>
       <c r="B17" s="0">
-        <v>403.208</v>
+        <v>371.9361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.1734</v>
       </c>
       <c r="B18" s="0">
-        <v>405.5589</v>
+        <v>363.4103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.1542</v>
       </c>
       <c r="B19" s="0">
-        <v>407.8474</v>
+        <v>357.016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.1258</v>
       </c>
       <c r="B20" s="0">
-        <v>409.8938</v>
+        <v>344.2274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.0994</v>
       </c>
       <c r="B21" s="0">
-        <v>411.5757</v>
+        <v>328.2416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.0751</v>
       </c>
       <c r="B22" s="0">
-        <v>413.1325</v>
+        <v>314.3872</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.0497</v>
       </c>
       <c r="B23" s="0">
-        <v>414.6582</v>
+        <v>289.8757</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.0294</v>
       </c>
       <c r="B24" s="0">
-        <v>416.2267</v>
+        <v>265.3641</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.0152</v>
       </c>
       <c r="B25" s="0">
-        <v>417.638</v>
+        <v>239.7869</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.0112</v>
       </c>
       <c r="B26" s="0">
-        <v>418.741</v>
+        <v>225.9325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.0061</v>
       </c>
       <c r="B27" s="0">
-        <v>420.03</v>
+        <v>195.0266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.58</v>
+        <v>0.003</v>
       </c>
       <c r="B28" s="0">
-        <v>421.856</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B29" s="0">
-        <v>423.8312</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B30" s="0">
-        <v>425.5008</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B31" s="0">
-        <v>426.6589</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B32" s="0">
-        <v>427.4413</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B33" s="0">
-        <v>428.4643</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>430.1322</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>430.7968</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>431.3844</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>431.9952</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>432.6615</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>434.8622</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>436.7737</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>437.3788</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>438.1111</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>439.8239</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>442.082</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>444.3708</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>447.284</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>450.0544</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.003</v>
-      </c>
-      <c r="B48" s="0">
-        <v>126.8206</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B49" s="0">
-        <v>193.9609</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="B50" s="0">
-        <v>223.8011</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0183</v>
-      </c>
-      <c r="B51" s="0">
-        <v>238.7211</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0314</v>
-      </c>
-      <c r="B52" s="0">
-        <v>264.2984</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0467</v>
-      </c>
-      <c r="B53" s="0">
-        <v>288.8099</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>128.952</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -13537,7 +12481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13558,445 +12502,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.997</v>
       </c>
       <c r="B3" s="0">
-        <v>336.404</v>
+        <v>500.8881</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.9817</v>
       </c>
       <c r="B4" s="0">
-        <v>351.5666</v>
+        <v>496.6252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.9594</v>
       </c>
       <c r="B5" s="0">
-        <v>363.2311</v>
+        <v>494.4938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.9057</v>
       </c>
       <c r="B6" s="0">
-        <v>374.6606</v>
+        <v>490.2309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.8043</v>
       </c>
       <c r="B7" s="0">
-        <v>385.1298</v>
+        <v>487.0337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.7018</v>
       </c>
       <c r="B8" s="0">
-        <v>394.4016</v>
+        <v>480.6394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.6014</v>
       </c>
       <c r="B9" s="0">
-        <v>403.2222</v>
+        <v>475.3108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.5091</v>
       </c>
       <c r="B10" s="0">
-        <v>411.5757</v>
+        <v>469.9822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.3955</v>
       </c>
       <c r="B11" s="0">
-        <v>418.9021</v>
+        <v>455.0622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.3458</v>
       </c>
       <c r="B12" s="0">
-        <v>425.1971</v>
+        <v>445.4707</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.3022</v>
       </c>
       <c r="B13" s="0">
-        <v>430.759</v>
+        <v>438.0107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.2759</v>
       </c>
       <c r="B14" s="0">
-        <v>435.8763</v>
+        <v>430.5506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2525</v>
       </c>
       <c r="B15" s="0">
-        <v>440.7635</v>
+        <v>425.222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.2312</v>
       </c>
       <c r="B16" s="0">
-        <v>445.5344</v>
+        <v>418.8277</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.2028</v>
       </c>
       <c r="B17" s="0">
-        <v>450.1801</v>
+        <v>407.1048</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.1724</v>
       </c>
       <c r="B18" s="0">
-        <v>454.8267</v>
+        <v>391.119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.1521</v>
       </c>
       <c r="B19" s="0">
-        <v>459.0316</v>
+        <v>383.659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.1247</v>
       </c>
       <c r="B20" s="0">
-        <v>462.4382</v>
+        <v>369.8046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.0994</v>
       </c>
       <c r="B21" s="0">
-        <v>465.1884</v>
+        <v>352.7531</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.0751</v>
       </c>
       <c r="B22" s="0">
-        <v>467.4405</v>
+        <v>334.6359</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.0467</v>
       </c>
       <c r="B23" s="0">
-        <v>469.3769</v>
+        <v>306.9272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.0233</v>
       </c>
       <c r="B24" s="0">
-        <v>471.1403</v>
+        <v>279.2185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.0162</v>
       </c>
       <c r="B25" s="0">
-        <v>472.8668</v>
+        <v>260.0355</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.0061</v>
       </c>
       <c r="B26" s="0">
-        <v>474.5955</v>
+        <v>208.881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.002</v>
       </c>
       <c r="B27" s="0">
-        <v>475.9967</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B28" s="0">
-        <v>476.9276</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B29" s="0">
-        <v>477.7952</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B30" s="0">
-        <v>478.8533</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B31" s="0">
-        <v>480.0066</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B32" s="0">
-        <v>481.0935</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B33" s="0">
-        <v>481.9536</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>482.6087</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>483.4758</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>484.7271</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>485.7845</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>486.299</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>486.7406</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>487.4919</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>488.4506</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>489.4666</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>490.4624</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>491.4175</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>492.4483</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>493.5996</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>494.8397</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9807</v>
-      </c>
-      <c r="B48" s="0">
-        <v>496.6252</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9959</v>
-      </c>
-      <c r="B49" s="0">
-        <v>499.8224</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0041</v>
-      </c>
-      <c r="B50" s="0">
-        <v>142.8064</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0041</v>
-      </c>
-      <c r="B51" s="0">
-        <v>3.1972</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0568</v>
-      </c>
-      <c r="B52" s="0">
-        <v>315.4529</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0467</v>
-      </c>
-      <c r="B53" s="0">
-        <v>301.5986</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0264</v>
-      </c>
-      <c r="B54" s="0">
-        <v>273.8899</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0172</v>
-      </c>
-      <c r="B55" s="0">
-        <v>256.8384</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0112</v>
-      </c>
-      <c r="B56" s="0">
-        <v>241.9183</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B57" s="0">
-        <v>205.6838</v>
-      </c>
-    </row>
-    <row r="58"/>
+        <v>144.9378</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14005,7 +12709,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14026,437 +12730,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.9828</v>
       </c>
       <c r="B3" s="0">
-        <v>312.6527</v>
+        <v>438.0107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.9594</v>
       </c>
       <c r="B4" s="0">
-        <v>325.6862</v>
+        <v>435.8792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.9087</v>
       </c>
       <c r="B5" s="0">
-        <v>335.0784</v>
+        <v>432.6821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.8083</v>
       </c>
       <c r="B6" s="0">
-        <v>344.426</v>
+        <v>429.4849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.7069</v>
       </c>
       <c r="B7" s="0">
-        <v>352.7808</v>
+        <v>426.2877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.6014</v>
       </c>
       <c r="B8" s="0">
-        <v>359.9359</v>
+        <v>422.0249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.497</v>
       </c>
       <c r="B9" s="0">
-        <v>366.9683</v>
+        <v>415.6306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.4016</v>
       </c>
       <c r="B10" s="0">
-        <v>373.933</v>
+        <v>407.1048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.3489</v>
       </c>
       <c r="B11" s="0">
-        <v>380.6212</v>
+        <v>401.7762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.3032</v>
       </c>
       <c r="B12" s="0">
-        <v>386.7595</v>
+        <v>394.3162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.2769</v>
       </c>
       <c r="B13" s="0">
-        <v>391.4003</v>
+        <v>387.9218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.2485</v>
       </c>
       <c r="B14" s="0">
-        <v>394.934</v>
+        <v>380.4618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.2211</v>
       </c>
       <c r="B15" s="0">
-        <v>398.1254</v>
+        <v>373.0018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.1957</v>
       </c>
       <c r="B16" s="0">
-        <v>401.5197</v>
+        <v>364.476</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.1704</v>
       </c>
       <c r="B17" s="0">
-        <v>404.9536</v>
+        <v>354.8845</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.146</v>
       </c>
       <c r="B18" s="0">
-        <v>408.0147</v>
+        <v>346.3588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.1278</v>
       </c>
       <c r="B19" s="0">
-        <v>410.4357</v>
+        <v>338.8988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.0984</v>
       </c>
       <c r="B20" s="0">
-        <v>412.1184</v>
+        <v>323.9787</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.07</v>
       </c>
       <c r="B21" s="0">
-        <v>413.8497</v>
+        <v>305.8615</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.0446</v>
       </c>
       <c r="B22" s="0">
-        <v>416.015</v>
+        <v>283.4813</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.0274</v>
       </c>
       <c r="B23" s="0">
-        <v>418.0544</v>
+        <v>264.2984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.0162</v>
       </c>
       <c r="B24" s="0">
-        <v>419.4961</v>
+        <v>248.3126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0.0122</v>
       </c>
       <c r="B25" s="0">
-        <v>420.6392</v>
+        <v>230.1954</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>0.0071</v>
       </c>
       <c r="B26" s="0">
-        <v>421.9066</v>
+        <v>204.6181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.56</v>
+        <v>0.0041</v>
       </c>
       <c r="B27" s="0">
-        <v>423.0234</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B28" s="0">
-        <v>423.7276</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B29" s="0">
-        <v>424.1264</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B30" s="0">
-        <v>424.4985</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B31" s="0">
-        <v>425.3673</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B32" s="0">
-        <v>426.7271</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B33" s="0">
-        <v>428.0636</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>429.0142</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>429.6416</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>430.3507</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>430.8891</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>431.0984</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>431.4933</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>432.1001</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>432.7743</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>433.4696</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>434.1372</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>434.9185</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>435.9184</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B46" s="0">
-        <v>437.0805</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B47" s="0">
-        <v>438.3699</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9757</v>
-      </c>
-      <c r="B48" s="0">
-        <v>440.1421</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9919</v>
-      </c>
-      <c r="B49" s="0">
-        <v>443.3393</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B50" s="0">
-        <v>3.1972</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0041</v>
-      </c>
-      <c r="B51" s="0">
-        <v>157.7265</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0061</v>
-      </c>
-      <c r="B52" s="0">
-        <v>202.4867</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0487</v>
-      </c>
-      <c r="B53" s="0">
-        <v>284.5471</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0314</v>
-      </c>
-      <c r="B54" s="0">
-        <v>265.3641</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0193</v>
-      </c>
-      <c r="B55" s="0">
-        <v>245.1155</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0132</v>
-      </c>
-      <c r="B56" s="0">
-        <v>229.1297</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>159.8579</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14465,7 +12937,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14486,405 +12958,181 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.9797</v>
       </c>
       <c r="B3" s="0">
-        <v>300.0815</v>
+        <v>454.5066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12</v>
+        <v>0.9554</v>
       </c>
       <c r="B4" s="0">
-        <v>309.7047</v>
+        <v>450.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14</v>
+        <v>0.8996</v>
       </c>
       <c r="B5" s="0">
-        <v>319.6585</v>
+        <v>445.0237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16</v>
+        <v>0.7961</v>
       </c>
       <c r="B6" s="0">
-        <v>328.2315</v>
+        <v>437.6918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18</v>
+        <v>0.6937</v>
       </c>
       <c r="B7" s="0">
-        <v>336.0676</v>
+        <v>429.2957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2</v>
+        <v>0.5943</v>
       </c>
       <c r="B8" s="0">
-        <v>344.1139</v>
+        <v>420.8964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.5061</v>
       </c>
       <c r="B9" s="0">
-        <v>351.3973</v>
+        <v>411.4221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.4057</v>
       </c>
       <c r="B10" s="0">
-        <v>358.0662</v>
+        <v>398.7714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.3438</v>
       </c>
       <c r="B11" s="0">
-        <v>364.4039</v>
+        <v>383.9534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.2992</v>
       </c>
       <c r="B12" s="0">
-        <v>370.5178</v>
+        <v>374.4328</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.2718</v>
       </c>
       <c r="B13" s="0">
-        <v>376.7851</v>
+        <v>368.0831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.2454</v>
       </c>
       <c r="B14" s="0">
-        <v>382.6228</v>
+        <v>360.6693</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.34</v>
+        <v>0.2201</v>
       </c>
       <c r="B15" s="0">
-        <v>387.5635</v>
+        <v>351.1282</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.36</v>
+        <v>0.1927</v>
       </c>
       <c r="B16" s="0">
-        <v>391.38</v>
+        <v>342.6523</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.38</v>
+        <v>0.1684</v>
       </c>
       <c r="B17" s="0">
-        <v>394.7499</v>
+        <v>333.1101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4</v>
+        <v>0.145</v>
       </c>
       <c r="B18" s="0">
-        <v>397.8439</v>
+        <v>324.6299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.42</v>
+        <v>0.1278</v>
       </c>
       <c r="B19" s="0">
-        <v>400.7067</v>
+        <v>317.2063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.44</v>
+        <v>0.0974</v>
       </c>
       <c r="B20" s="0">
-        <v>403.6719</v>
+        <v>301.2918</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.46</v>
+        <v>0.069</v>
       </c>
       <c r="B21" s="0">
-        <v>406.6239</v>
+        <v>284.3121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.48</v>
+        <v>0.0426</v>
       </c>
       <c r="B22" s="0">
-        <v>409.1851</v>
+        <v>264.1408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5</v>
+        <v>0.0041</v>
       </c>
       <c r="B23" s="0">
-        <v>411.249</v>
+        <v>188.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.52</v>
+        <v>0.002</v>
       </c>
       <c r="B24" s="0">
-        <v>413.3083</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B25" s="0">
-        <v>415.5591</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B26" s="0">
-        <v>417.7781</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B27" s="0">
-        <v>419.9185</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B28" s="0">
-        <v>421.0671</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B29" s="0">
-        <v>422.0096</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B30" s="0">
-        <v>423.712</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B31" s="0">
-        <v>426.4945</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B32" s="0">
-        <v>429.7423</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B33" s="0">
-        <v>433.4437</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B34" s="0">
-        <v>436.4799</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B35" s="0">
-        <v>438.6303</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B36" s="0">
-        <v>440.055</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B37" s="0">
-        <v>440.8902</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B38" s="0">
-        <v>442.0773</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B39" s="0">
-        <v>443.682</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B40" s="0">
-        <v>445.2297</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B41" s="0">
-        <v>446.3547</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>447.0959</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B43" s="0">
-        <v>448.3457</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B44" s="0">
-        <v>450.1347</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B45" s="0">
-        <v>452.2348</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B46" s="0">
-        <v>454.5723</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B47" s="0">
-        <v>456.1638</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.068</v>
-      </c>
-      <c r="B48" s="0">
-        <v>282.1869</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0467</v>
-      </c>
-      <c r="B49" s="0">
-        <v>263.0733</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0233</v>
-      </c>
-      <c r="B50" s="0">
-        <v>239.7094</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0051</v>
-      </c>
-      <c r="B51" s="0">
-        <v>189.7621</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.003</v>
-      </c>
-      <c r="B52" s="0">
-        <v>140.8606</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>141.9248</v>
+      </c>
+    </row>
+    <row r="25"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -14893,7 +13141,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14914,429 +13162,213 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.997</v>
       </c>
       <c r="B3" s="0">
-        <v>350.7719</v>
+        <v>553.3587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.9777</v>
       </c>
       <c r="B4" s="0">
-        <v>365.1491</v>
+        <v>548.0636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.9533</v>
       </c>
       <c r="B5" s="0">
-        <v>376.4757</v>
+        <v>544.9001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.8976</v>
       </c>
       <c r="B6" s="0">
-        <v>387.4291</v>
+        <v>537.5175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.8083</v>
       </c>
       <c r="B7" s="0">
-        <v>397.5022</v>
+        <v>530.1706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.7069</v>
       </c>
       <c r="B8" s="0">
-        <v>406.4831</v>
+        <v>519.6472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.6014</v>
       </c>
       <c r="B9" s="0">
-        <v>414.7649</v>
+        <v>503.8124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="B10" s="0">
-        <v>422.736</v>
+        <v>486.9103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.44</v>
+        <v>0.3935</v>
       </c>
       <c r="B11" s="0">
-        <v>478.4023</v>
+        <v>468.9504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.46</v>
+        <v>0.3529</v>
       </c>
       <c r="B12" s="0">
-        <v>481.0087</v>
+        <v>459.4254</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.48</v>
+        <v>0.2951</v>
       </c>
       <c r="B13" s="0">
-        <v>483.6978</v>
+        <v>445.6663</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5</v>
+        <v>0.2718</v>
       </c>
       <c r="B14" s="0">
-        <v>486.7563</v>
+        <v>439.3124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.52</v>
+        <v>0.2434</v>
       </c>
       <c r="B15" s="0">
-        <v>489.8233</v>
+        <v>430.8376</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.54</v>
+        <v>0.2231</v>
       </c>
       <c r="B16" s="0">
-        <v>493.2234</v>
+        <v>422.3542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.56</v>
+        <v>0.2008</v>
       </c>
       <c r="B17" s="0">
-        <v>496.8129</v>
+        <v>415.9991</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.58</v>
+        <v>0.1684</v>
       </c>
       <c r="B18" s="0">
-        <v>500.1143</v>
+        <v>401.1499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.6</v>
+        <v>0.1501</v>
       </c>
       <c r="B19" s="0">
-        <v>503.0367</v>
+        <v>393.7275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.62</v>
+        <v>0.1237</v>
       </c>
       <c r="B20" s="0">
-        <v>505.7516</v>
+        <v>378.8718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.64</v>
+        <v>0.0963</v>
       </c>
       <c r="B21" s="0">
-        <v>508.9663</v>
+        <v>362.954</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.66</v>
+        <v>0.071</v>
       </c>
       <c r="B22" s="0">
-        <v>512.6726</v>
+        <v>345.971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.68</v>
+        <v>0.0446</v>
       </c>
       <c r="B23" s="0">
-        <v>516.1402</v>
+        <v>319.421</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.7</v>
+        <v>0.0233</v>
       </c>
       <c r="B24" s="0">
-        <v>519.0263</v>
+        <v>292.8656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.72</v>
+        <v>0.0152</v>
       </c>
       <c r="B25" s="0">
-        <v>521.4502</v>
+        <v>274.8011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.74</v>
+        <v>0.0101</v>
       </c>
       <c r="B26" s="0">
-        <v>524.034</v>
+        <v>258.8596</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.76</v>
+        <v>0.003</v>
       </c>
       <c r="B27" s="0">
-        <v>526.934</v>
+        <v>228.0366</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>530.2897</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B29" s="0">
-        <v>532.4705</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B30" s="0">
-        <v>533.2492</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B31" s="0">
-        <v>534.1183</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B32" s="0">
-        <v>535.6817</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B33" s="0">
-        <v>537.7648</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B34" s="0">
-        <v>540.4048</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B35" s="0">
-        <v>542.9392</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B36" s="0">
-        <v>545.1905</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B37" s="0">
-        <v>547.4856</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9777</v>
-      </c>
-      <c r="B38" s="0">
-        <v>549.1267</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9959</v>
-      </c>
-      <c r="B39" s="0">
-        <v>551.2335</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.4249</v>
-      </c>
-      <c r="B40" s="0">
-        <v>474.2326</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.4047</v>
-      </c>
-      <c r="B41" s="0">
-        <v>470.0017</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.3783</v>
-      </c>
-      <c r="B42" s="0">
-        <v>465.7772</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.358</v>
-      </c>
-      <c r="B43" s="0">
-        <v>459.4201</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.3316</v>
-      </c>
-      <c r="B44" s="0">
-        <v>454.1325</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.3124</v>
-      </c>
-      <c r="B45" s="0">
-        <v>450.9636</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.2972</v>
-      </c>
-      <c r="B46" s="0">
-        <v>444.601</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.2759</v>
-      </c>
-      <c r="B47" s="0">
-        <v>439.3081</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.2475</v>
-      </c>
-      <c r="B48" s="0">
-        <v>431.8964</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0588</v>
-      </c>
-      <c r="B49" s="0">
-        <v>332.1634</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0446</v>
-      </c>
-      <c r="B50" s="0">
-        <v>319.421</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0264</v>
-      </c>
-      <c r="B51" s="0">
-        <v>290.7361</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0142</v>
-      </c>
-      <c r="B52" s="0">
-        <v>271.6128</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0091</v>
-      </c>
-      <c r="B53" s="0">
-        <v>255.6714</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0061</v>
-      </c>
-      <c r="B54" s="0">
-        <v>224.844</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B55" s="0">
-        <v>164.2503</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>166.3787</v>
+      </c>
+    </row>
+    <row r="29"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15345,7 +13377,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15366,445 +13398,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9929</v>
       </c>
       <c r="B3" s="0">
-        <v>272.1913</v>
+        <v>753.2301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9696</v>
       </c>
       <c r="B4" s="0">
-        <v>292.3924</v>
+        <v>746.8762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9483</v>
       </c>
       <c r="B5" s="0">
-        <v>307.5103</v>
+        <v>740.5201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.8986</v>
       </c>
       <c r="B6" s="0">
-        <v>320.9547</v>
+        <v>723.563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.7972</v>
       </c>
       <c r="B7" s="0">
-        <v>334.063</v>
+        <v>679.0196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.6968</v>
       </c>
       <c r="B8" s="0">
-        <v>347.4641</v>
+        <v>631.2858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.5953</v>
       </c>
       <c r="B9" s="0">
-        <v>361.1173</v>
+        <v>586.7425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.4959</v>
       </c>
       <c r="B10" s="0">
-        <v>373.148</v>
+        <v>541.1339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.3976</v>
       </c>
       <c r="B11" s="0">
-        <v>383.4079</v>
+        <v>492.3348</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.3489</v>
       </c>
       <c r="B12" s="0">
-        <v>396.1873</v>
+        <v>466.8716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34</v>
+        <v>0.2961</v>
       </c>
       <c r="B13" s="0">
-        <v>463.204</v>
+        <v>440.3496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.36</v>
+        <v>0.2698</v>
       </c>
       <c r="B14" s="0">
-        <v>471.9057</v>
+        <v>423.3677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.38</v>
+        <v>0.2221</v>
       </c>
       <c r="B15" s="0">
-        <v>483.4898</v>
+        <v>397.9034</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.1957</v>
       </c>
       <c r="B16" s="0">
-        <v>492.7348</v>
+        <v>384.1108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.42</v>
+        <v>0.1704</v>
       </c>
       <c r="B17" s="0">
-        <v>502.6995</v>
+        <v>368.191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.44</v>
+        <v>0.144</v>
       </c>
       <c r="B18" s="0">
-        <v>513.2747</v>
+        <v>351.209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.46</v>
+        <v>0.1197</v>
       </c>
       <c r="B19" s="0">
-        <v>523.0219</v>
+        <v>335.2881</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.48</v>
+        <v>0.0933</v>
       </c>
       <c r="B20" s="0">
-        <v>532.8808</v>
+        <v>317.243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5</v>
+        <v>0.072</v>
       </c>
       <c r="B21" s="0">
-        <v>540.4569</v>
+        <v>300.2557</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.52</v>
+        <v>0.0456</v>
       </c>
       <c r="B22" s="0">
-        <v>548.8064</v>
+        <v>276.895</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.54</v>
+        <v>0.0264</v>
       </c>
       <c r="B23" s="0">
-        <v>558.8546</v>
+        <v>250.3374</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.56</v>
+        <v>0.0152</v>
       </c>
       <c r="B24" s="0">
-        <v>568.1103</v>
+        <v>230.1499</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.58</v>
+        <v>0.0091</v>
       </c>
       <c r="B25" s="0">
-        <v>577.8719</v>
+        <v>205.7046</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="B26" s="0">
-        <v>585.2362</v>
+        <v>156.8085</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.62</v>
+        <v>0.001</v>
       </c>
       <c r="B27" s="0">
-        <v>594.2306</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B28" s="0">
-        <v>604.6948</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B29" s="0">
-        <v>613.7651</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B30" s="0">
-        <v>622.4189</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B31" s="0">
-        <v>629.4696</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B32" s="0">
-        <v>639.5587</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B33" s="0">
-        <v>650.2871</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B34" s="0">
-        <v>659.7506</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B35" s="0">
-        <v>669.9219</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B36" s="0">
-        <v>677.6029</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B37" s="0">
-        <v>685.8557</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B38" s="0">
-        <v>695.9857</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B39" s="0">
-        <v>705.1065</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B40" s="0">
-        <v>714.3236</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B41" s="0">
-        <v>722.6357</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B42" s="0">
-        <v>731.6375</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B43" s="0">
-        <v>738.5798</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B44" s="0">
-        <v>743.4167</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B45" s="0">
-        <v>749.0781</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.3266</v>
-      </c>
-      <c r="B46" s="0">
-        <v>455.201</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.3063</v>
-      </c>
-      <c r="B47" s="0">
-        <v>441.402</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.2982</v>
-      </c>
-      <c r="B48" s="0">
-        <v>437.1581</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.2789</v>
-      </c>
-      <c r="B49" s="0">
-        <v>427.6105</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.2677</v>
-      </c>
-      <c r="B50" s="0">
-        <v>421.2436</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.2515</v>
-      </c>
-      <c r="B51" s="0">
-        <v>413.819</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0254</v>
-      </c>
-      <c r="B52" s="0">
-        <v>248.2122</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0152</v>
-      </c>
-      <c r="B53" s="0">
-        <v>225.8974</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0091</v>
-      </c>
-      <c r="B54" s="0">
-        <v>205.7046</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.0041</v>
-      </c>
-      <c r="B55" s="0">
-        <v>156.8063</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.001</v>
-      </c>
-      <c r="B56" s="0">
-        <v>83.4541</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B57" s="0">
-        <v>3.7188</v>
-      </c>
-    </row>
-    <row r="58"/>
+        <v>84.5172</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -15813,7 +13605,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15834,437 +13626,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.9949</v>
       </c>
       <c r="B3" s="0">
-        <v>307.6333</v>
+        <v>690.5037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12</v>
+        <v>0.9726</v>
       </c>
       <c r="B4" s="0">
-        <v>318.854</v>
+        <v>683.0856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14</v>
+        <v>0.9533</v>
       </c>
       <c r="B5" s="0">
-        <v>330.6248</v>
+        <v>676.7273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16</v>
+        <v>0.9006</v>
       </c>
       <c r="B6" s="0">
-        <v>342.0771</v>
+        <v>659.7734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18</v>
+        <v>0.7961</v>
       </c>
       <c r="B7" s="0">
-        <v>352.4584</v>
+        <v>623.7383</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2</v>
+        <v>0.6968</v>
       </c>
       <c r="B8" s="0">
-        <v>362.3654</v>
+        <v>580.2559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.5963</v>
       </c>
       <c r="B9" s="0">
-        <v>372.248</v>
+        <v>538.9009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.4959</v>
       </c>
       <c r="B10" s="0">
-        <v>382.3643</v>
+        <v>497.5458</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.3976</v>
       </c>
       <c r="B11" s="0">
-        <v>392.8946</v>
+        <v>456.1886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.3529</v>
       </c>
       <c r="B12" s="0">
-        <v>403.2897</v>
+        <v>438.163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.3012</v>
       </c>
       <c r="B13" s="0">
-        <v>413.4935</v>
+        <v>411.6399</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.2698</v>
       </c>
       <c r="B14" s="0">
-        <v>424.0597</v>
+        <v>394.6634</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.34</v>
+        <v>0.2495</v>
       </c>
       <c r="B15" s="0">
-        <v>434.2205</v>
+        <v>386.1799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.36</v>
+        <v>0.2191</v>
       </c>
       <c r="B16" s="0">
-        <v>443.3602</v>
+        <v>370.2654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.38</v>
+        <v>0.1988</v>
       </c>
       <c r="B17" s="0">
-        <v>451.8833</v>
+        <v>361.782</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4</v>
+        <v>0.1704</v>
       </c>
       <c r="B18" s="0">
-        <v>459.0704</v>
+        <v>343.7391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.42</v>
+        <v>0.1521</v>
       </c>
       <c r="B19" s="0">
-        <v>466.5317</v>
+        <v>335.2535</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.44</v>
+        <v>0.1237</v>
       </c>
       <c r="B20" s="0">
-        <v>475.1346</v>
+        <v>319.3369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.46</v>
+        <v>0.0974</v>
       </c>
       <c r="B21" s="0">
-        <v>483.9485</v>
+        <v>302.355</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.48</v>
+        <v>0.072</v>
       </c>
       <c r="B22" s="0">
-        <v>492.018</v>
+        <v>285.372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5</v>
+        <v>0.0487</v>
       </c>
       <c r="B23" s="0">
-        <v>499.6309</v>
+        <v>264.1343</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.52</v>
+        <v>0.0254</v>
       </c>
       <c r="B24" s="0">
-        <v>507.4353</v>
+        <v>237.581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.54</v>
+        <v>0.0132</v>
       </c>
       <c r="B25" s="0">
-        <v>515.5617</v>
+        <v>218.4577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.56</v>
+        <v>0.0091</v>
       </c>
       <c r="B26" s="0">
-        <v>523.7429</v>
+        <v>200.389</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.58</v>
+        <v>0.0041</v>
       </c>
       <c r="B27" s="0">
-        <v>532.4114</v>
+        <v>172.7532</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="B28" s="0">
-        <v>539.9835</v>
+        <v>116.4098</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.62</v>
+        <v>0.001</v>
       </c>
       <c r="B29" s="0">
-        <v>547.5801</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B30" s="0">
-        <v>555.9488</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B31" s="0">
-        <v>564.4956</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B32" s="0">
-        <v>573.0195</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B33" s="0">
-        <v>581.5869</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B34" s="0">
-        <v>589.9613</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B35" s="0">
-        <v>598.6161</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B36" s="0">
-        <v>607.7387</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B37" s="0">
-        <v>616.535</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B38" s="0">
-        <v>624.3042</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B39" s="0">
-        <v>631.4609</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B40" s="0">
-        <v>638.7786</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B41" s="0">
-        <v>646.6072</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>654.6279</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B43" s="0">
-        <v>662.4844</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B44" s="0">
-        <v>669.4323</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B45" s="0">
-        <v>675.8213</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B46" s="0">
-        <v>681.946</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9757</v>
-      </c>
-      <c r="B47" s="0">
-        <v>687.3348</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9949</v>
-      </c>
-      <c r="B48" s="0">
-        <v>692.63</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0781</v>
-      </c>
-      <c r="B49" s="0">
-        <v>289.618</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0517</v>
-      </c>
-      <c r="B50" s="0">
-        <v>267.3204</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0304</v>
-      </c>
-      <c r="B51" s="0">
-        <v>241.8281</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0183</v>
-      </c>
-      <c r="B52" s="0">
-        <v>221.6417</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="B53" s="0">
-        <v>201.451</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B54" s="0">
-        <v>172.7499</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.003</v>
-      </c>
-      <c r="B55" s="0">
-        <v>115.3456</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B56" s="0">
-        <v>6.9081</v>
-      </c>
-    </row>
-    <row r="57"/>
+        <v>2.6567</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -16273,7 +13849,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16294,421 +13870,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.26</v>
+        <v>0.997</v>
       </c>
       <c r="B3" s="0">
-        <v>377.1668</v>
+        <v>570.2272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28</v>
+        <v>0.9769</v>
       </c>
       <c r="B4" s="0">
-        <v>386.6388</v>
+        <v>563.9242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.3</v>
+        <v>0.9538</v>
       </c>
       <c r="B5" s="0">
-        <v>396.1327</v>
+        <v>558.6785</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.32</v>
+        <v>0.9005</v>
       </c>
       <c r="B6" s="0">
-        <v>404.2334</v>
+        <v>549.2485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.34</v>
+        <v>0.797</v>
       </c>
       <c r="B7" s="0">
-        <v>410.679</v>
+        <v>530.3853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.36</v>
+        <v>0.6975</v>
       </c>
       <c r="B8" s="0">
-        <v>416.2801</v>
+        <v>509.4098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.38</v>
+        <v>0.594</v>
       </c>
       <c r="B9" s="0">
-        <v>421.9031</v>
+        <v>481.0604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4</v>
+        <v>0.5035</v>
       </c>
       <c r="B10" s="0">
-        <v>427.8556</v>
+        <v>457.9673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.42</v>
+        <v>0.404</v>
       </c>
       <c r="B11" s="0">
-        <v>434.1181</v>
+        <v>429.6137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.44</v>
+        <v>0.3457</v>
       </c>
       <c r="B12" s="0">
-        <v>440.2519</v>
+        <v>408.5948</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.46</v>
+        <v>0.3015</v>
       </c>
       <c r="B13" s="0">
-        <v>446.0044</v>
+        <v>395.9931</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.48</v>
+        <v>0.2734</v>
       </c>
       <c r="B14" s="0">
-        <v>451.5384</v>
+        <v>384.4286</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5</v>
+        <v>0.2452</v>
       </c>
       <c r="B15" s="0">
-        <v>457.0512</v>
+        <v>372.8641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.52</v>
+        <v>0.2231</v>
       </c>
       <c r="B16" s="0">
-        <v>462.2944</v>
+        <v>365.5092</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.54</v>
+        <v>0.197</v>
       </c>
       <c r="B17" s="0">
-        <v>467.4088</v>
+        <v>351.8345</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.56</v>
+        <v>0.1709</v>
       </c>
       <c r="B18" s="0">
-        <v>472.6456</v>
+        <v>342.3759</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.58</v>
+        <v>0.1457</v>
       </c>
       <c r="B19" s="0">
-        <v>477.9374</v>
+        <v>329.7542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6</v>
+        <v>0.1276</v>
       </c>
       <c r="B20" s="0">
-        <v>482.934</v>
+        <v>318.179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.62</v>
+        <v>0.0975</v>
       </c>
       <c r="B21" s="0">
-        <v>487.8212</v>
+        <v>303.4546</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.64</v>
+        <v>0.0724</v>
       </c>
       <c r="B22" s="0">
-        <v>493.0823</v>
+        <v>286.6167</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.66</v>
+        <v>0.0452</v>
       </c>
       <c r="B23" s="0">
-        <v>498.2634</v>
+        <v>262.4029</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.68</v>
+        <v>0.0241</v>
       </c>
       <c r="B24" s="0">
-        <v>503.2931</v>
+        <v>239.2368</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7</v>
+        <v>0.0141</v>
       </c>
       <c r="B25" s="0">
-        <v>508.3846</v>
+        <v>220.275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.72</v>
+        <v>0.005</v>
       </c>
       <c r="B26" s="0">
-        <v>512.8335</v>
+        <v>173.9077</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.74</v>
+        <v>0.003</v>
       </c>
       <c r="B27" s="0">
-        <v>517.407</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B28" s="0">
-        <v>521.9272</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B29" s="0">
-        <v>525.9749</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B30" s="0">
-        <v>529.9677</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B31" s="0">
-        <v>533.9313</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B32" s="0">
-        <v>537.6131</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B33" s="0">
-        <v>540.9967</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B34" s="0">
-        <v>544.7661</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B35" s="0">
-        <v>549.1395</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B36" s="0">
-        <v>553.6731</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B37" s="0">
-        <v>558.0964</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B38" s="0">
-        <v>562.0828</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9769</v>
-      </c>
-      <c r="B39" s="0">
-        <v>563.9242</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.994</v>
-      </c>
-      <c r="B40" s="0">
-        <v>569.1763</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.1739</v>
-      </c>
-      <c r="B41" s="0">
-        <v>344.4808</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.2452</v>
-      </c>
-      <c r="B42" s="0">
-        <v>373.9181</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.2241</v>
-      </c>
-      <c r="B43" s="0">
-        <v>365.5082</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.2</v>
-      </c>
-      <c r="B44" s="0">
-        <v>353.9394</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.1477</v>
-      </c>
-      <c r="B45" s="0">
-        <v>330.8061</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.1256</v>
-      </c>
-      <c r="B46" s="0">
-        <v>320.2892</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0975</v>
-      </c>
-      <c r="B47" s="0">
-        <v>303.4546</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0724</v>
-      </c>
-      <c r="B48" s="0">
-        <v>289.7788</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0442</v>
-      </c>
-      <c r="B49" s="0">
-        <v>263.458</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0241</v>
-      </c>
-      <c r="B50" s="0">
-        <v>240.2908</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0121</v>
-      </c>
-      <c r="B51" s="0">
-        <v>222.3852</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.008</v>
-      </c>
-      <c r="B52" s="0">
-        <v>206.5791</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.005</v>
-      </c>
-      <c r="B53" s="0">
-        <v>170.7457</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B54" s="0">
-        <v>114.8859</v>
-      </c>
-    </row>
-    <row r="55"/>
+        <v>114.8848</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 65 Activated Carbon from Stipa/Data65_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 65 Activated Carbon from Stipa/Data65_all_graphs_excel.xlsx
@@ -5,18 +5,18 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2_1 R1-400  0-1-0-600 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2_1 R1-450  0-1-0-600 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2_1 R1-500  0-1-0-600 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2_1 R1-600  0-1-0-600 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_2 R2-400  0-1-0-800 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_2 R2-450  0-1-0-800 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2_2 R2-500  0-1-0-800 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 2_2 R2-600  0-1-0-800 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 2_3 R3-400  0-1-0-800 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 2_3 R3-450  0-1-0-800 " sheetId="10" r:id="rId12"/>
-    <sheet name="Figure 2_3 R3-500  0-1-0-800 " sheetId="11" r:id="rId13"/>
-    <sheet name="Figure 2_3 R3-600  0-1-0-800 " sheetId="12" r:id="rId14"/>
+    <sheet name="Figure 2_1 R1-400  0&amp;1&amp;0&amp;600 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 R1-450  0&amp;1&amp;0&amp;600 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 R1-500  0&amp;1&amp;0&amp;600 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 R1-600  0&amp;1&amp;0&amp;600 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 R2-400  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 R2-450  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 R2-500  0&amp;1&amp;0&amp;800 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_2 R2-600  0&amp;1&amp;0&amp;800 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 2_3 R3-400  0&amp;1&amp;0&amp;800 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 2_3 R3-450  0&amp;1&amp;0&amp;800 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 2_3 R3-500  0&amp;1&amp;0&amp;800 " sheetId="11" r:id="rId13"/>
+    <sheet name="Figure 2_3 R3-600  0&amp;1&amp;0&amp;800 " sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -200,12 +200,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-400  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 R1-400  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-400  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 R1-400  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -514,12 +514,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-450  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_3 R3-450  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-450  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_3 R3-450  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -828,12 +828,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-500  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_3 R3-500  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-500  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_3 R3-500  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1142,12 +1142,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-600  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_3 R3-600  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-600  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_3 R3-600  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1456,12 +1456,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-450  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 R1-450  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-450  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 R1-450  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1770,12 +1770,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-500  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 R1-500  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-500  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 R1-500  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2084,12 +2084,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-600  0-1-0-600 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 R1-600  0&amp;1&amp;0&amp;600 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_1 R1-600  0-1-0-600 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 R1-600  0&amp;1&amp;0&amp;600 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2398,12 +2398,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-400  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 R2-400  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-400  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 R2-400  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2712,12 +2712,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-450  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 R2-450  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-450  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 R2-450  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3026,12 +3026,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-500  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 R2-500  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-500  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 R2-500  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3340,12 +3340,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-600  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 R2-600  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 R2-600  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 R2-600  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3654,12 +3654,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-400  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_3 R3-400  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_3 R3-400  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_3 R3-400  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
